--- a/biology/Zoologie/Conus_regius/Conus_regius.xlsx
+++ b/biology/Zoologie/Conus_regius/Conus_regius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus regius est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans la Mer des Caraïbes et dans le Golfe du Mexique ; dans l'océan Atlantique au large du Île de Brasil.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est très répandue et commune. Il n'y a actuellement aucune menace connue pour cette espèce. Cette espèce est classée dans la catégorie préoccupation mineure[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est très répandue et commune. Il n'y a actuellement aucune menace connue pour cette espèce. Cette espèce est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_regius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_regius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus regius a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »[2],[3].
-Synonymes
-Conus (Stephanoconus) regius Gmelin, 1791 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus regius a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_regius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_regius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Stephanoconus) regius Gmelin, 1791 · appellation alternative
 Conus ammiralis  var. regius Gmelin, 1791 · non accepté
 Conus citrinus Gmelin, 1791 · non accepté
 Conus gadesi Espinosa &amp; Ortea, 2005 · non accepté
@@ -559,9 +648,43 @@
 Conus spurius (Röding, 1798) · non accepté
 Cucullus coronacivica Röding, 1798 · non accepté
 Cucullus spurius Röding, 1798 · non accepté
-Stephanoconus regius (Gmelin, 1791) · non accepté
-Sous-espèces
-Conus regius abbotti Clench, 1942, accepté en tant que Conus jucundus G. B. Sowerby III, 1887</t>
+Stephanoconus regius (Gmelin, 1791) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_regius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_regius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus regius abbotti Clench, 1942, accepté en tant que Conus jucundus G. B. Sowerby III, 1887</t>
         </is>
       </c>
     </row>
